--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H2">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I2">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J2">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.683873666666666</v>
+        <v>0.04182166666666667</v>
       </c>
       <c r="N2">
-        <v>8.051620999999999</v>
+        <v>0.125465</v>
       </c>
       <c r="O2">
-        <v>0.7025487437947114</v>
+        <v>0.03574612430984324</v>
       </c>
       <c r="P2">
-        <v>0.7025487437947114</v>
+        <v>0.03574612430984324</v>
       </c>
       <c r="Q2">
-        <v>183.5578549872407</v>
+        <v>0.861463391725</v>
       </c>
       <c r="R2">
-        <v>1652.020694885166</v>
+        <v>7.753170525524999</v>
       </c>
       <c r="S2">
-        <v>0.2681630397959692</v>
+        <v>0.006694919175406179</v>
       </c>
       <c r="T2">
-        <v>0.2681630397959692</v>
+        <v>0.006694919175406179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H3">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I3">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J3">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.658477</v>
       </c>
       <c r="O3">
-        <v>0.1447113485548341</v>
+        <v>0.4725152433508619</v>
       </c>
       <c r="P3">
-        <v>0.1447113485548341</v>
+        <v>0.4725152433508619</v>
       </c>
       <c r="Q3">
-        <v>37.80934058690467</v>
+        <v>11.387376730705</v>
       </c>
       <c r="R3">
-        <v>340.284065282142</v>
+        <v>102.486390576345</v>
       </c>
       <c r="S3">
-        <v>0.05523635970343109</v>
+        <v>0.08849774414593803</v>
       </c>
       <c r="T3">
-        <v>0.05523635970343111</v>
+        <v>0.08849774414593803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H4">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I4">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J4">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5834963333333333</v>
+        <v>0.5753163333333333</v>
       </c>
       <c r="N4">
-        <v>1.750489</v>
+        <v>1.725949</v>
       </c>
       <c r="O4">
-        <v>0.1527399076504546</v>
+        <v>0.4917386323392949</v>
       </c>
       <c r="P4">
-        <v>0.1527399076504546</v>
+        <v>0.4917386323392949</v>
       </c>
       <c r="Q4">
-        <v>39.90699587309933</v>
+        <v>11.850650615585</v>
       </c>
       <c r="R4">
-        <v>359.1629628578939</v>
+        <v>106.655855540265</v>
       </c>
       <c r="S4">
-        <v>0.05830086281624611</v>
+        <v>0.09209810748713283</v>
       </c>
       <c r="T4">
-        <v>0.05830086281624611</v>
+        <v>0.09209810748713283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H5">
         <v>180.617317</v>
       </c>
       <c r="I5">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J5">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.683873666666666</v>
+        <v>0.04182166666666667</v>
       </c>
       <c r="N5">
-        <v>8.051620999999999</v>
+        <v>0.125465</v>
       </c>
       <c r="O5">
-        <v>0.7025487437947114</v>
+        <v>0.03574612430984324</v>
       </c>
       <c r="P5">
-        <v>0.7025487437947114</v>
+        <v>0.03574612430984324</v>
       </c>
       <c r="Q5">
-        <v>161.5846869467619</v>
+        <v>2.517905741933889</v>
       </c>
       <c r="R5">
-        <v>1454.262182520857</v>
+        <v>22.661151677405</v>
       </c>
       <c r="S5">
-        <v>0.2360620352593231</v>
+        <v>0.01956806939849597</v>
       </c>
       <c r="T5">
-        <v>0.2360620352593231</v>
+        <v>0.01956806939849597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H6">
         <v>180.617317</v>
       </c>
       <c r="I6">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J6">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.658477</v>
       </c>
       <c r="O6">
-        <v>0.1447113485548341</v>
+        <v>0.4725152433508619</v>
       </c>
       <c r="P6">
-        <v>0.1447113485548341</v>
+        <v>0.4725152433508619</v>
       </c>
       <c r="Q6">
-        <v>33.28329622735655</v>
+        <v>33.28329622735656</v>
       </c>
       <c r="R6">
         <v>299.549666046209</v>
       </c>
       <c r="S6">
-        <v>0.04862417841708849</v>
+        <v>0.2586633167162906</v>
       </c>
       <c r="T6">
-        <v>0.0486241784170885</v>
+        <v>0.2586633167162906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H7">
         <v>180.617317</v>
       </c>
       <c r="I7">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J7">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5834963333333333</v>
+        <v>0.5753163333333333</v>
       </c>
       <c r="N7">
-        <v>1.750489</v>
+        <v>1.725949</v>
       </c>
       <c r="O7">
-        <v>0.1527399076504546</v>
+        <v>0.4917386323392949</v>
       </c>
       <c r="P7">
-        <v>0.1527399076504546</v>
+        <v>0.4917386323392949</v>
       </c>
       <c r="Q7">
-        <v>35.12984740200144</v>
+        <v>34.63736418431478</v>
       </c>
       <c r="R7">
-        <v>316.168626618013</v>
+        <v>311.736277658833</v>
       </c>
       <c r="S7">
-        <v>0.05132183892399522</v>
+        <v>0.2691865445364421</v>
       </c>
       <c r="T7">
-        <v>0.05132183892399522</v>
+        <v>0.2691865445364422</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H8">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I8">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J8">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.683873666666666</v>
+        <v>0.04182166666666667</v>
       </c>
       <c r="N8">
-        <v>8.051620999999999</v>
+        <v>0.125465</v>
       </c>
       <c r="O8">
-        <v>0.7025487437947114</v>
+        <v>0.03574612430984324</v>
       </c>
       <c r="P8">
-        <v>0.7025487437947114</v>
+        <v>0.03574612430984324</v>
       </c>
       <c r="Q8">
-        <v>135.7527392839281</v>
+        <v>1.220234936559444</v>
       </c>
       <c r="R8">
-        <v>1221.774653555353</v>
+        <v>10.982114429035</v>
       </c>
       <c r="S8">
-        <v>0.1983236687394191</v>
+        <v>0.009483135735941091</v>
       </c>
       <c r="T8">
-        <v>0.1983236687394191</v>
+        <v>0.009483135735941091</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H9">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I9">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J9">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.658477</v>
       </c>
       <c r="O9">
-        <v>0.1447113485548341</v>
+        <v>0.4725152433508619</v>
       </c>
       <c r="P9">
-        <v>0.1447113485548341</v>
+        <v>0.4725152433508619</v>
       </c>
       <c r="Q9">
-        <v>27.96241847317344</v>
+        <v>16.12984957462477</v>
       </c>
       <c r="R9">
-        <v>251.661766258561</v>
+        <v>145.168646171623</v>
       </c>
       <c r="S9">
-        <v>0.04085081043431447</v>
+        <v>0.1253541824886333</v>
       </c>
       <c r="T9">
-        <v>0.04085081043431448</v>
+        <v>0.1253541824886333</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H10">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I10">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J10">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5834963333333333</v>
+        <v>0.5753163333333333</v>
       </c>
       <c r="N10">
-        <v>1.750489</v>
+        <v>1.725949</v>
       </c>
       <c r="O10">
-        <v>0.1527399076504546</v>
+        <v>0.4917386323392949</v>
       </c>
       <c r="P10">
-        <v>0.1527399076504546</v>
+        <v>0.4917386323392949</v>
       </c>
       <c r="Q10">
-        <v>29.51376832520855</v>
+        <v>16.78606199752789</v>
       </c>
       <c r="R10">
-        <v>265.623914926877</v>
+        <v>151.074557977751</v>
       </c>
       <c r="S10">
-        <v>0.04311720591021323</v>
+        <v>0.1304539803157198</v>
       </c>
       <c r="T10">
-        <v>0.04311720591021324</v>
+        <v>0.1304539803157198</v>
       </c>
     </row>
   </sheetData>
